--- a/szxc_data_cleaning/tests/real/企业信息_导入模板.xlsx
+++ b/szxc_data_cleaning/tests/real/企业信息_导入模板.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelate\Documents\smalltools\Small-Tools\szxc_data_cleaning\tests\real\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F423A661-B9B9-4CE3-8724-8AD9F6625C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12210" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="12216" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企业信息" sheetId="11" r:id="rId1"/>
@@ -18,41 +24,44 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Esther</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>目前企业类型限定如下：合资，独资，国有，私营，全民所有制，集体所有制，股份制，有限责任</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>目前企业状态限定如下：在业，存续，迁入，迁出，停业，注销，吊销，清算</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">成立日期格式：
@@ -61,12 +70,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">目前所属行业限定如下：农、林、牧、渔业，采矿业，制造业，电力、燃气及水的生产和供应业，建筑业，交通运输、仓储和邮政业，信息传输、计算机服务和软件业，批发和零售业，住宿和餐饮业，金融业，房地产业，租赁和商务服务业，科学研究、技术服务和地质勘查业，水利、环境和公共设施管理业，居民服务和其他服务业，教育，卫生、社会保障和社会福利业，文化、体育和娱乐业
@@ -74,12 +84,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">目前纳税人资质限定如下：一般纳税人，小规模纳税人
@@ -175,9 +186,6 @@
     <t>经营范围</t>
   </si>
   <si>
-    <t>占地面积</t>
-  </si>
-  <si>
     <t>苏州市相城区新莲服装厂</t>
   </si>
   <si>
@@ -356,20 +364,20 @@
   </si>
   <si>
     <t>文化、体育和娱乐业</t>
+  </si>
+  <si>
+    <t>占地面积（亩）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,161 +428,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,198 +464,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -812,255 +507,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +533,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1123,7 +576,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1143,73 +596,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1496,47 +905,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:AB4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.10833333333333" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.4416666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.3333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.775" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.44166666666667" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.66666666666667" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.1083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="24" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.3333333333333" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.1083333333333" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.8833333333333" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.8833333333333" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="4" customWidth="1"/>
     <col min="15" max="15" width="15" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.4416666666667" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.4416666666667" style="4" customWidth="1"/>
-    <col min="18" max="18" width="18.1083333333333" style="4" customWidth="1"/>
-    <col min="19" max="19" width="20.4416666666667" style="4" customWidth="1"/>
-    <col min="20" max="20" width="26.4416666666667" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.8833333333333" style="4" customWidth="1"/>
-    <col min="22" max="22" width="11.1083333333333" style="4" customWidth="1"/>
-    <col min="23" max="23" width="11.4416666666667" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.6666666666667" style="4" customWidth="1"/>
-    <col min="25" max="25" width="10.2166666666667" style="4" customWidth="1"/>
-    <col min="26" max="26" width="10.4416666666667" style="4" customWidth="1"/>
-    <col min="27" max="28" width="10.2166666666667" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18.109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="26.44140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="10.21875" style="4" customWidth="1"/>
+    <col min="26" max="26" width="10.44140625" style="4" customWidth="1"/>
+    <col min="27" max="28" width="10.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -1621,50 +1030,50 @@
       <c r="AA1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:27">
+      <c r="AB1" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="2" customFormat="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="I2" s="28">
         <v>500</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="28"/>
       <c r="M2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>36</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>37</v>
       </c>
       <c r="O2" s="28">
         <v>6000</v>
@@ -1673,69 +1082,69 @@
         <v>44049</v>
       </c>
       <c r="Q2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="T2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="U2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="W2" s="34"/>
       <c r="X2" s="34"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
       <c r="AA2" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="24" customHeight="1" spans="1:28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="J3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="28" t="s">
         <v>36</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>37</v>
       </c>
       <c r="O3" s="28">
         <v>6000</v>
@@ -1744,70 +1153,70 @@
         <v>44049</v>
       </c>
       <c r="Q3" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="S3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="T3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="U3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="V3" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="V3" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="W3" s="34"/>
       <c r="X3" s="34"/>
       <c r="Y3" s="34"/>
       <c r="Z3" s="34"/>
       <c r="AA3" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="24" customHeight="1" spans="1:28">
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="28" t="s">
         <v>36</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>37</v>
       </c>
       <c r="O4" s="28">
         <v>6000</v>
@@ -1816,29 +1225,29 @@
         <v>44049</v>
       </c>
       <c r="Q4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="S4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="T4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="U4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="V4" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="V4" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="W4" s="34"/>
       <c r="X4" s="34"/>
       <c r="Y4" s="34"/>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
@@ -1870,9 +1279,9 @@
       <c r="Y5" s="31"/>
       <c r="Z5" s="31"/>
       <c r="AA5" s="21"/>
-      <c r="AB5" s="36"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:28">
+      <c r="AB5" s="35"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.6">
       <c r="A6" s="8"/>
       <c r="B6" s="23"/>
       <c r="C6" s="17"/>
@@ -1900,9 +1309,9 @@
       <c r="Y6" s="31"/>
       <c r="Z6" s="31"/>
       <c r="AA6" s="23"/>
-      <c r="AB6" s="36"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:28">
+      <c r="AB6" s="35"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.6">
       <c r="A7" s="8"/>
       <c r="B7" s="23"/>
       <c r="C7" s="17"/>
@@ -1930,9 +1339,9 @@
       <c r="Y7" s="31"/>
       <c r="Z7" s="31"/>
       <c r="AA7" s="23"/>
-      <c r="AB7" s="36"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:28">
+      <c r="AB7" s="35"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.6">
       <c r="A8" s="8"/>
       <c r="B8" s="23"/>
       <c r="C8" s="17"/>
@@ -1960,9 +1369,9 @@
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
       <c r="AA8" s="23"/>
-      <c r="AB8" s="36"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:28">
+      <c r="AB8" s="35"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.6">
       <c r="A9" s="8"/>
       <c r="B9" s="23"/>
       <c r="C9" s="17"/>
@@ -1989,8 +1398,8 @@
       <c r="X9" s="19"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="8"/>
@@ -2019,8 +1428,8 @@
       <c r="X10" s="21"/>
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="8"/>
@@ -2049,8 +1458,8 @@
       <c r="X11" s="21"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="8"/>
@@ -2079,10 +1488,10 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:28">
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.6">
       <c r="A13" s="8"/>
       <c r="B13" s="23"/>
       <c r="C13" s="17"/>
@@ -2109,8 +1518,8 @@
       <c r="X13" s="23"/>
       <c r="Y13" s="31"/>
       <c r="Z13" s="31"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="8"/>
@@ -2139,8 +1548,8 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="8"/>
@@ -2169,10 +1578,10 @@
       <c r="X15" s="21"/>
       <c r="Y15" s="31"/>
       <c r="Z15" s="31"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:28">
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.6">
       <c r="A16" s="8"/>
       <c r="B16" s="23"/>
       <c r="C16" s="17"/>
@@ -2199,8 +1608,8 @@
       <c r="X16" s="23"/>
       <c r="Y16" s="31"/>
       <c r="Z16" s="31"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="8"/>
@@ -2229,8 +1638,8 @@
       <c r="X17" s="21"/>
       <c r="Y17" s="31"/>
       <c r="Z17" s="31"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="8"/>
@@ -2259,8 +1668,8 @@
       <c r="X18" s="21"/>
       <c r="Y18" s="31"/>
       <c r="Z18" s="31"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="8"/>
@@ -2289,8 +1698,8 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="31"/>
       <c r="Z19" s="31"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="8"/>
@@ -2319,8 +1728,8 @@
       <c r="X20" s="21"/>
       <c r="Y20" s="31"/>
       <c r="Z20" s="31"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="8"/>
@@ -2349,8 +1758,8 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="31"/>
       <c r="Z21" s="31"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="8"/>
@@ -2379,8 +1788,8 @@
       <c r="X22" s="21"/>
       <c r="Y22" s="31"/>
       <c r="Z22" s="31"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="8"/>
@@ -2409,8 +1818,8 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="31"/>
       <c r="Z23" s="31"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="8"/>
@@ -2439,8 +1848,8 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="31"/>
       <c r="Z24" s="31"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="8"/>
@@ -2469,10 +1878,10 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:28">
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.6">
       <c r="A26" s="8"/>
       <c r="B26" s="23"/>
       <c r="C26" s="17"/>
@@ -2499,8 +1908,8 @@
       <c r="X26" s="23"/>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="8"/>
@@ -2529,10 +1938,10 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="31"/>
       <c r="Z27" s="31"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:28">
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.6">
       <c r="A28" s="8"/>
       <c r="B28" s="23"/>
       <c r="C28" s="17"/>
@@ -2559,8 +1968,8 @@
       <c r="X28" s="23"/>
       <c r="Y28" s="31"/>
       <c r="Z28" s="31"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="8"/>
@@ -2589,8 +1998,8 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="31"/>
       <c r="Z29" s="31"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="8"/>
@@ -2619,8 +2028,8 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="31"/>
       <c r="Z30" s="31"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="8"/>
@@ -2649,8 +2058,8 @@
       <c r="X31" s="19"/>
       <c r="Y31" s="31"/>
       <c r="Z31" s="31"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="8"/>
@@ -2679,8 +2088,8 @@
       <c r="X32" s="21"/>
       <c r="Y32" s="31"/>
       <c r="Z32" s="31"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="8"/>
@@ -2709,10 +2118,10 @@
       <c r="X33" s="21"/>
       <c r="Y33" s="31"/>
       <c r="Z33" s="31"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:28">
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+    </row>
+    <row r="34" spans="1:28" ht="15.6">
       <c r="A34" s="8"/>
       <c r="B34" s="19"/>
       <c r="C34" s="17"/>
@@ -2739,10 +2148,10 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="31"/>
       <c r="Z34" s="31"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:28">
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+    </row>
+    <row r="35" spans="1:28" ht="15.6">
       <c r="A35" s="8"/>
       <c r="B35" s="19"/>
       <c r="C35" s="17"/>
@@ -2769,10 +2178,10 @@
       <c r="X35" s="21"/>
       <c r="Y35" s="31"/>
       <c r="Z35" s="31"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:28">
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+    </row>
+    <row r="36" spans="1:28" ht="15.6">
       <c r="A36" s="8"/>
       <c r="B36" s="23"/>
       <c r="C36" s="17"/>
@@ -2799,8 +2208,8 @@
       <c r="X36" s="23"/>
       <c r="Y36" s="31"/>
       <c r="Z36" s="31"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="8"/>
@@ -2829,8 +2238,8 @@
       <c r="X37" s="21"/>
       <c r="Y37" s="31"/>
       <c r="Z37" s="31"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="8"/>
@@ -2859,8 +2268,8 @@
       <c r="X38" s="19"/>
       <c r="Y38" s="31"/>
       <c r="Z38" s="31"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="8"/>
@@ -2889,10 +2298,10 @@
       <c r="X39" s="19"/>
       <c r="Y39" s="31"/>
       <c r="Z39" s="31"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:28">
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+    </row>
+    <row r="40" spans="1:28" ht="15.6">
       <c r="A40" s="8"/>
       <c r="B40" s="23"/>
       <c r="C40" s="17"/>
@@ -2919,10 +2328,10 @@
       <c r="X40" s="23"/>
       <c r="Y40" s="31"/>
       <c r="Z40" s="31"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:28">
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+    </row>
+    <row r="41" spans="1:28" ht="15.6">
       <c r="A41" s="8"/>
       <c r="B41" s="23"/>
       <c r="C41" s="17"/>
@@ -2949,8 +2358,8 @@
       <c r="X41" s="23"/>
       <c r="Y41" s="31"/>
       <c r="Z41" s="31"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="8"/>
@@ -2979,8 +2388,8 @@
       <c r="X42" s="19"/>
       <c r="Y42" s="31"/>
       <c r="Z42" s="31"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="8"/>
@@ -3009,8 +2418,8 @@
       <c r="X43" s="19"/>
       <c r="Y43" s="31"/>
       <c r="Z43" s="31"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="8"/>
@@ -3039,8 +2448,8 @@
       <c r="X44" s="19"/>
       <c r="Y44" s="31"/>
       <c r="Z44" s="31"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="8"/>
@@ -3069,8 +2478,8 @@
       <c r="X45" s="19"/>
       <c r="Y45" s="31"/>
       <c r="Z45" s="31"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="36"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="8"/>
@@ -3099,10 +2508,10 @@
       <c r="X46" s="19"/>
       <c r="Y46" s="31"/>
       <c r="Z46" s="31"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-    </row>
-    <row r="47" ht="14.25" spans="1:28">
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+    </row>
+    <row r="47" spans="1:28" ht="15.6">
       <c r="A47" s="8"/>
       <c r="B47" s="23"/>
       <c r="C47" s="17"/>
@@ -3129,10 +2538,10 @@
       <c r="X47" s="23"/>
       <c r="Y47" s="31"/>
       <c r="Z47" s="31"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:28">
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+    </row>
+    <row r="48" spans="1:28" ht="15.6">
       <c r="A48" s="8"/>
       <c r="B48" s="23"/>
       <c r="C48" s="17"/>
@@ -3159,10 +2568,10 @@
       <c r="X48" s="23"/>
       <c r="Y48" s="31"/>
       <c r="Z48" s="31"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:28">
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+    </row>
+    <row r="49" spans="1:28" ht="15.6">
       <c r="A49" s="8"/>
       <c r="B49" s="23"/>
       <c r="C49" s="17"/>
@@ -3189,10 +2598,10 @@
       <c r="X49" s="23"/>
       <c r="Y49" s="31"/>
       <c r="Z49" s="31"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:28">
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+    </row>
+    <row r="50" spans="1:28" ht="15.6">
       <c r="A50" s="8"/>
       <c r="B50" s="23"/>
       <c r="C50" s="17"/>
@@ -3219,10 +2628,10 @@
       <c r="X50" s="23"/>
       <c r="Y50" s="31"/>
       <c r="Z50" s="31"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-    </row>
-    <row r="51" ht="14.25" spans="1:28">
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+    </row>
+    <row r="51" spans="1:28" ht="15.6">
       <c r="A51" s="8"/>
       <c r="B51" s="23"/>
       <c r="C51" s="17"/>
@@ -3249,10 +2658,10 @@
       <c r="X51" s="23"/>
       <c r="Y51" s="31"/>
       <c r="Z51" s="31"/>
-      <c r="AA51" s="36"/>
-      <c r="AB51" s="36"/>
-    </row>
-    <row r="52" ht="14.25" spans="1:28">
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+    </row>
+    <row r="52" spans="1:28" ht="15.6">
       <c r="A52" s="8"/>
       <c r="B52" s="23"/>
       <c r="C52" s="17"/>
@@ -3279,8 +2688,8 @@
       <c r="X52" s="23"/>
       <c r="Y52" s="31"/>
       <c r="Z52" s="31"/>
-      <c r="AA52" s="36"/>
-      <c r="AB52" s="36"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="8"/>
@@ -3309,8 +2718,8 @@
       <c r="X53" s="19"/>
       <c r="Y53" s="31"/>
       <c r="Z53" s="31"/>
-      <c r="AA53" s="36"/>
-      <c r="AB53" s="36"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="8"/>
@@ -3339,8 +2748,8 @@
       <c r="X54" s="19"/>
       <c r="Y54" s="31"/>
       <c r="Z54" s="31"/>
-      <c r="AA54" s="36"/>
-      <c r="AB54" s="36"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="8"/>
@@ -3369,10 +2778,10 @@
       <c r="X55" s="19"/>
       <c r="Y55" s="31"/>
       <c r="Z55" s="31"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-    </row>
-    <row r="56" ht="14.25" spans="1:28">
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+    </row>
+    <row r="56" spans="1:28" ht="15.6">
       <c r="A56" s="8"/>
       <c r="B56" s="23"/>
       <c r="C56" s="17"/>
@@ -3399,10 +2808,10 @@
       <c r="X56" s="23"/>
       <c r="Y56" s="31"/>
       <c r="Z56" s="31"/>
-      <c r="AA56" s="36"/>
-      <c r="AB56" s="36"/>
-    </row>
-    <row r="57" ht="14.25" spans="1:28">
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="35"/>
+    </row>
+    <row r="57" spans="1:28" ht="15.6">
       <c r="A57" s="8"/>
       <c r="B57" s="23"/>
       <c r="C57" s="17"/>
@@ -3429,8 +2838,8 @@
       <c r="X57" s="23"/>
       <c r="Y57" s="31"/>
       <c r="Z57" s="31"/>
-      <c r="AA57" s="36"/>
-      <c r="AB57" s="36"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="8"/>
@@ -3459,8 +2868,8 @@
       <c r="X58" s="19"/>
       <c r="Y58" s="31"/>
       <c r="Z58" s="31"/>
-      <c r="AA58" s="36"/>
-      <c r="AB58" s="36"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="8"/>
@@ -3489,8 +2898,8 @@
       <c r="X59" s="19"/>
       <c r="Y59" s="31"/>
       <c r="Z59" s="31"/>
-      <c r="AA59" s="36"/>
-      <c r="AB59" s="36"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="8"/>
@@ -3519,8 +2928,8 @@
       <c r="X60" s="19"/>
       <c r="Y60" s="31"/>
       <c r="Z60" s="31"/>
-      <c r="AA60" s="36"/>
-      <c r="AB60" s="36"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="8"/>
@@ -3549,8 +2958,8 @@
       <c r="X61" s="19"/>
       <c r="Y61" s="31"/>
       <c r="Z61" s="31"/>
-      <c r="AA61" s="36"/>
-      <c r="AB61" s="36"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="8"/>
@@ -3579,8 +2988,8 @@
       <c r="X62" s="19"/>
       <c r="Y62" s="31"/>
       <c r="Z62" s="31"/>
-      <c r="AA62" s="36"/>
-      <c r="AB62" s="36"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="8"/>
@@ -3609,10 +3018,10 @@
       <c r="X63" s="21"/>
       <c r="Y63" s="31"/>
       <c r="Z63" s="31"/>
-      <c r="AA63" s="36"/>
-      <c r="AB63" s="36"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:28">
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+    </row>
+    <row r="64" spans="1:28" ht="15.6">
       <c r="A64" s="8"/>
       <c r="B64" s="23"/>
       <c r="C64" s="17"/>
@@ -3639,10 +3048,10 @@
       <c r="X64" s="23"/>
       <c r="Y64" s="31"/>
       <c r="Z64" s="31"/>
-      <c r="AA64" s="36"/>
-      <c r="AB64" s="36"/>
-    </row>
-    <row r="65" ht="14.25" spans="1:28">
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+    </row>
+    <row r="65" spans="1:28" ht="15.6">
       <c r="A65" s="8"/>
       <c r="B65" s="23"/>
       <c r="C65" s="17"/>
@@ -3669,8 +3078,8 @@
       <c r="X65" s="23"/>
       <c r="Y65" s="31"/>
       <c r="Z65" s="31"/>
-      <c r="AA65" s="36"/>
-      <c r="AB65" s="36"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="8"/>
@@ -3699,8 +3108,8 @@
       <c r="X66" s="21"/>
       <c r="Y66" s="31"/>
       <c r="Z66" s="31"/>
-      <c r="AA66" s="36"/>
-      <c r="AB66" s="36"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="8"/>
@@ -3729,8 +3138,8 @@
       <c r="X67" s="19"/>
       <c r="Y67" s="31"/>
       <c r="Z67" s="31"/>
-      <c r="AA67" s="36"/>
-      <c r="AB67" s="36"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="8"/>
@@ -3759,10 +3168,10 @@
       <c r="X68" s="19"/>
       <c r="Y68" s="31"/>
       <c r="Z68" s="31"/>
-      <c r="AA68" s="36"/>
-      <c r="AB68" s="36"/>
-    </row>
-    <row r="69" ht="14.25" spans="1:28">
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+    </row>
+    <row r="69" spans="1:28" ht="15.6">
       <c r="A69" s="8"/>
       <c r="B69" s="23"/>
       <c r="C69" s="17"/>
@@ -3789,8 +3198,8 @@
       <c r="X69" s="23"/>
       <c r="Y69" s="31"/>
       <c r="Z69" s="31"/>
-      <c r="AA69" s="36"/>
-      <c r="AB69" s="36"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="8"/>
@@ -3819,10 +3228,10 @@
       <c r="X70" s="19"/>
       <c r="Y70" s="31"/>
       <c r="Z70" s="31"/>
-      <c r="AA70" s="36"/>
-      <c r="AB70" s="36"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:28">
+      <c r="AA70" s="35"/>
+      <c r="AB70" s="35"/>
+    </row>
+    <row r="71" spans="1:28" ht="15.6">
       <c r="A71" s="8"/>
       <c r="B71" s="23"/>
       <c r="C71" s="17"/>
@@ -3849,10 +3258,10 @@
       <c r="X71" s="23"/>
       <c r="Y71" s="31"/>
       <c r="Z71" s="31"/>
-      <c r="AA71" s="36"/>
-      <c r="AB71" s="36"/>
-    </row>
-    <row r="72" ht="14.25" spans="1:28">
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+    </row>
+    <row r="72" spans="1:28" ht="15.6">
       <c r="A72" s="8"/>
       <c r="B72" s="23"/>
       <c r="C72" s="17"/>
@@ -3879,10 +3288,10 @@
       <c r="X72" s="23"/>
       <c r="Y72" s="31"/>
       <c r="Z72" s="31"/>
-      <c r="AA72" s="36"/>
-      <c r="AB72" s="36"/>
-    </row>
-    <row r="73" ht="14.25" spans="1:28">
+      <c r="AA72" s="35"/>
+      <c r="AB72" s="35"/>
+    </row>
+    <row r="73" spans="1:28" ht="15.6">
       <c r="A73" s="8"/>
       <c r="B73" s="23"/>
       <c r="C73" s="17"/>
@@ -3909,10 +3318,10 @@
       <c r="X73" s="23"/>
       <c r="Y73" s="31"/>
       <c r="Z73" s="31"/>
-      <c r="AA73" s="36"/>
-      <c r="AB73" s="36"/>
-    </row>
-    <row r="74" ht="14.25" spans="1:28">
+      <c r="AA73" s="35"/>
+      <c r="AB73" s="35"/>
+    </row>
+    <row r="74" spans="1:28" ht="15.6">
       <c r="A74" s="8"/>
       <c r="B74" s="23"/>
       <c r="C74" s="17"/>
@@ -3939,8 +3348,8 @@
       <c r="X74" s="23"/>
       <c r="Y74" s="31"/>
       <c r="Z74" s="31"/>
-      <c r="AA74" s="36"/>
-      <c r="AB74" s="36"/>
+      <c r="AA74" s="35"/>
+      <c r="AB74" s="35"/>
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="8"/>
@@ -3969,8 +3378,8 @@
       <c r="X75" s="19"/>
       <c r="Y75" s="31"/>
       <c r="Z75" s="31"/>
-      <c r="AA75" s="36"/>
-      <c r="AB75" s="36"/>
+      <c r="AA75" s="35"/>
+      <c r="AB75" s="35"/>
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="8"/>
@@ -3999,8 +3408,8 @@
       <c r="X76" s="21"/>
       <c r="Y76" s="31"/>
       <c r="Z76" s="31"/>
-      <c r="AA76" s="36"/>
-      <c r="AB76" s="36"/>
+      <c r="AA76" s="35"/>
+      <c r="AB76" s="35"/>
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="8"/>
@@ -4029,8 +3438,8 @@
       <c r="X77" s="19"/>
       <c r="Y77" s="31"/>
       <c r="Z77" s="31"/>
-      <c r="AA77" s="36"/>
-      <c r="AB77" s="36"/>
+      <c r="AA77" s="35"/>
+      <c r="AB77" s="35"/>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="8"/>
@@ -4059,8 +3468,8 @@
       <c r="X78" s="19"/>
       <c r="Y78" s="31"/>
       <c r="Z78" s="31"/>
-      <c r="AA78" s="36"/>
-      <c r="AB78" s="36"/>
+      <c r="AA78" s="35"/>
+      <c r="AB78" s="35"/>
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="8"/>
@@ -4089,8 +3498,8 @@
       <c r="X79" s="19"/>
       <c r="Y79" s="31"/>
       <c r="Z79" s="31"/>
-      <c r="AA79" s="36"/>
-      <c r="AB79" s="36"/>
+      <c r="AA79" s="35"/>
+      <c r="AB79" s="35"/>
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="8"/>
@@ -4119,8 +3528,8 @@
       <c r="X80" s="19"/>
       <c r="Y80" s="31"/>
       <c r="Z80" s="31"/>
-      <c r="AA80" s="36"/>
-      <c r="AB80" s="36"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="8"/>
@@ -4149,8 +3558,8 @@
       <c r="X81" s="19"/>
       <c r="Y81" s="31"/>
       <c r="Z81" s="31"/>
-      <c r="AA81" s="36"/>
-      <c r="AB81" s="36"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="35"/>
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="8"/>
@@ -4179,8 +3588,8 @@
       <c r="X82" s="19"/>
       <c r="Y82" s="31"/>
       <c r="Z82" s="31"/>
-      <c r="AA82" s="36"/>
-      <c r="AB82" s="36"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="8"/>
@@ -4209,8 +3618,8 @@
       <c r="X83" s="19"/>
       <c r="Y83" s="31"/>
       <c r="Z83" s="31"/>
-      <c r="AA83" s="36"/>
-      <c r="AB83" s="36"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="8"/>
@@ -4239,8 +3648,8 @@
       <c r="X84" s="19"/>
       <c r="Y84" s="31"/>
       <c r="Z84" s="31"/>
-      <c r="AA84" s="36"/>
-      <c r="AB84" s="36"/>
+      <c r="AA84" s="35"/>
+      <c r="AB84" s="35"/>
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="8"/>
@@ -4269,17 +3678,17 @@
       <c r="X85" s="19"/>
       <c r="Y85" s="31"/>
       <c r="Z85" s="31"/>
-      <c r="AA85" s="36"/>
-      <c r="AB85" s="36"/>
+      <c r="AA85" s="35"/>
+      <c r="AB85" s="35"/>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="8"/>
-      <c r="B86" s="36"/>
+      <c r="B86" s="35"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="36"/>
+      <c r="G86" s="35"/>
       <c r="H86" s="22"/>
       <c r="I86" s="8"/>
       <c r="J86" s="17"/>
@@ -4295,21 +3704,21 @@
       <c r="T86" s="31"/>
       <c r="U86" s="31"/>
       <c r="V86" s="31"/>
-      <c r="W86" s="36"/>
-      <c r="X86" s="36"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
       <c r="Y86" s="31"/>
       <c r="Z86" s="31"/>
-      <c r="AA86" s="36"/>
-      <c r="AB86" s="36"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="8"/>
-      <c r="B87" s="36"/>
+      <c r="B87" s="35"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="36"/>
+      <c r="G87" s="35"/>
       <c r="H87" s="22"/>
       <c r="I87" s="8"/>
       <c r="J87" s="17"/>
@@ -4325,67 +3734,84 @@
       <c r="T87" s="31"/>
       <c r="U87" s="31"/>
       <c r="V87" s="31"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
       <c r="Y87" s="31"/>
       <c r="Z87" s="31"/>
-      <c r="AA87" s="36"/>
-      <c r="AB87" s="36"/>
+      <c r="AA87" s="35"/>
+      <c r="AB87" s="35"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【门牌号】栏" sqref="D1">
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【门牌号】栏" sqref="D1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(D1&lt;&gt;"")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M4 M1:M2 M5:M1048576">
-      <formula1>字典项!$C$2:$C$19</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【注册资本（万）】栏" sqref="I2">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【注册资本（万）】栏" sqref="I2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>OR(I2&lt;&gt;"")</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【厂房名称】栏" sqref="B2">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【厂房名称】栏" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>OR(B2&lt;&gt;"")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E1:E2 E5:E1048576">
-      <formula1>字典项!$A$2:$A$9</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【成立日期】栏" sqref="H2 K2">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【成立日期】栏" sqref="H2 K2" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>OR(H2&lt;&gt;"")</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【注册地址】栏" sqref="J2">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【注册地址】栏" sqref="J2" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>OR(J2&lt;&gt;"")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F1:F2 F5:F1048576">
-      <formula1>字典项!$B$2:$B$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3 U4 U1:U2 U5:U1048576">
-      <formula1>字典项!$D$2:$D$3</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【法人代表】栏" sqref="G4">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【法人代表】栏" sqref="G4" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>OR(G4&lt;&gt;"")</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>字典项!$C$2:$C$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>M3 M4 M1:M2 M5:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>字典项!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3 E4 E1:E2 E5:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
+          <x14:formula1>
+            <xm:f>字典项!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3 F4 F1:F2 F5:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
+          <x14:formula1>
+            <xm:f>字典项!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>U3 U4 U1:U2 U5:U1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="31.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4404,151 +3830,151 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>73</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>76</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
-      <c r="C10" t="s">
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/szxc_data_cleaning/tests/real/企业信息_导入模板.xlsx
+++ b/szxc_data_cleaning/tests/real/企业信息_导入模板.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelate\Documents\smalltools\Small-Tools\szxc_data_cleaning\tests\real\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F423A661-B9B9-4CE3-8724-8AD9F6625C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="12216" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14400" windowHeight="12210" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="企业信息" sheetId="11" r:id="rId1"/>
@@ -24,44 +18,41 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Esther</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>目前企业类型限定如下：合资，独资，国有，私营，全民所有制，集体所有制，股份制，有限责任</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>目前企业状态限定如下：在业，存续，迁入，迁出，停业，注销，吊销，清算</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">成立日期格式：
@@ -70,13 +61,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">目前所属行业限定如下：农、林、牧、渔业，采矿业，制造业，电力、燃气及水的生产和供应业，建筑业，交通运输、仓储和邮政业，信息传输、计算机服务和软件业，批发和零售业，住宿和餐饮业，金融业，房地产业，租赁和商务服务业，科学研究、技术服务和地质勘查业，水利、环境和公共设施管理业，居民服务和其他服务业，教育，卫生、社会保障和社会福利业，文化、体育和娱乐业
@@ -84,13 +74,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">目前纳税人资质限定如下：一般纳税人，小规模纳税人
@@ -186,6 +175,9 @@
     <t>经营范围</t>
   </si>
   <si>
+    <t>占地面积</t>
+  </si>
+  <si>
     <t>苏州市相城区新莲服装厂</t>
   </si>
   <si>
@@ -364,20 +356,20 @@
   </si>
   <si>
     <t>文化、体育和娱乐业</t>
-  </si>
-  <si>
-    <t>占地面积（亩）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,34 +420,161 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,12 +583,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -507,13 +812,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -533,7 +1080,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,7 +1123,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -596,29 +1143,73 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -905,47 +1496,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:AB4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.10833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.4416666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" style="4" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.775" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.44166666666667" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.1083333333333" style="4" customWidth="1"/>
     <col min="10" max="10" width="24" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.3333333333333" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.1083333333333" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.8833333333333" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.8833333333333" style="4" customWidth="1"/>
     <col min="15" max="15" width="15" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="18.109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="26.44140625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.88671875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" style="4" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="10.21875" style="4" customWidth="1"/>
-    <col min="26" max="26" width="10.44140625" style="4" customWidth="1"/>
-    <col min="27" max="28" width="10.21875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11.4416666666667" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.4416666666667" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18.1083333333333" style="4" customWidth="1"/>
+    <col min="19" max="19" width="20.4416666666667" style="4" customWidth="1"/>
+    <col min="20" max="20" width="26.4416666666667" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.8833333333333" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11.1083333333333" style="4" customWidth="1"/>
+    <col min="23" max="23" width="11.4416666666667" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.6666666666667" style="4" customWidth="1"/>
+    <col min="25" max="25" width="10.2166666666667" style="4" customWidth="1"/>
+    <col min="26" max="26" width="10.4416666666667" style="4" customWidth="1"/>
+    <col min="27" max="28" width="10.2166666666667" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -1030,50 +1621,50 @@
       <c r="AA1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1">
+      <c r="AB1" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:27">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="28">
         <v>500</v>
       </c>
       <c r="J2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="L2" s="28"/>
       <c r="M2" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="28">
         <v>6000</v>
@@ -1082,69 +1673,69 @@
         <v>44049</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V2" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W2" s="34"/>
       <c r="X2" s="34"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
       <c r="AA2" s="34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" ht="24" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="24" customHeight="1" spans="1:28">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="28">
         <v>6000</v>
@@ -1153,70 +1744,70 @@
         <v>44049</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W3" s="34"/>
       <c r="X3" s="34"/>
       <c r="Y3" s="34"/>
       <c r="Z3" s="34"/>
       <c r="AA3" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" ht="24" customHeight="1">
+    <row r="4" s="3" customFormat="1" ht="24" customHeight="1" spans="1:28">
       <c r="A4" s="8"/>
       <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="J4" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="28">
         <v>6000</v>
@@ -1225,29 +1816,29 @@
         <v>44049</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U4" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V4" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W4" s="34"/>
       <c r="X4" s="34"/>
       <c r="Y4" s="34"/>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
@@ -1279,9 +1870,9 @@
       <c r="Y5" s="31"/>
       <c r="Z5" s="31"/>
       <c r="AA5" s="21"/>
-      <c r="AB5" s="35"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.6">
+      <c r="AB5" s="36"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:28">
       <c r="A6" s="8"/>
       <c r="B6" s="23"/>
       <c r="C6" s="17"/>
@@ -1309,9 +1900,9 @@
       <c r="Y6" s="31"/>
       <c r="Z6" s="31"/>
       <c r="AA6" s="23"/>
-      <c r="AB6" s="35"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.6">
+      <c r="AB6" s="36"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:28">
       <c r="A7" s="8"/>
       <c r="B7" s="23"/>
       <c r="C7" s="17"/>
@@ -1339,9 +1930,9 @@
       <c r="Y7" s="31"/>
       <c r="Z7" s="31"/>
       <c r="AA7" s="23"/>
-      <c r="AB7" s="35"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.6">
+      <c r="AB7" s="36"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:28">
       <c r="A8" s="8"/>
       <c r="B8" s="23"/>
       <c r="C8" s="17"/>
@@ -1369,9 +1960,9 @@
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
       <c r="AA8" s="23"/>
-      <c r="AB8" s="35"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.6">
+      <c r="AB8" s="36"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:28">
       <c r="A9" s="8"/>
       <c r="B9" s="23"/>
       <c r="C9" s="17"/>
@@ -1398,8 +1989,8 @@
       <c r="X9" s="19"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="8"/>
@@ -1428,8 +2019,8 @@
       <c r="X10" s="21"/>
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="8"/>
@@ -1458,8 +2049,8 @@
       <c r="X11" s="21"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="31"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="8"/>
@@ -1488,10 +2079,10 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.6">
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:28">
       <c r="A13" s="8"/>
       <c r="B13" s="23"/>
       <c r="C13" s="17"/>
@@ -1518,8 +2109,8 @@
       <c r="X13" s="23"/>
       <c r="Y13" s="31"/>
       <c r="Z13" s="31"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="8"/>
@@ -1548,8 +2139,8 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="8"/>
@@ -1578,10 +2169,10 @@
       <c r="X15" s="21"/>
       <c r="Y15" s="31"/>
       <c r="Z15" s="31"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.6">
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:28">
       <c r="A16" s="8"/>
       <c r="B16" s="23"/>
       <c r="C16" s="17"/>
@@ -1608,8 +2199,8 @@
       <c r="X16" s="23"/>
       <c r="Y16" s="31"/>
       <c r="Z16" s="31"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="8"/>
@@ -1638,8 +2229,8 @@
       <c r="X17" s="21"/>
       <c r="Y17" s="31"/>
       <c r="Z17" s="31"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="8"/>
@@ -1668,8 +2259,8 @@
       <c r="X18" s="21"/>
       <c r="Y18" s="31"/>
       <c r="Z18" s="31"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="8"/>
@@ -1698,8 +2289,8 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="31"/>
       <c r="Z19" s="31"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="8"/>
@@ -1728,8 +2319,8 @@
       <c r="X20" s="21"/>
       <c r="Y20" s="31"/>
       <c r="Z20" s="31"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="8"/>
@@ -1758,8 +2349,8 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="31"/>
       <c r="Z21" s="31"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="8"/>
@@ -1788,8 +2379,8 @@
       <c r="X22" s="21"/>
       <c r="Y22" s="31"/>
       <c r="Z22" s="31"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="8"/>
@@ -1818,8 +2409,8 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="31"/>
       <c r="Z23" s="31"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="8"/>
@@ -1848,8 +2439,8 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="31"/>
       <c r="Z24" s="31"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="8"/>
@@ -1878,10 +2469,10 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.6">
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:28">
       <c r="A26" s="8"/>
       <c r="B26" s="23"/>
       <c r="C26" s="17"/>
@@ -1908,8 +2499,8 @@
       <c r="X26" s="23"/>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="8"/>
@@ -1938,10 +2529,10 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="31"/>
       <c r="Z27" s="31"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.6">
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:28">
       <c r="A28" s="8"/>
       <c r="B28" s="23"/>
       <c r="C28" s="17"/>
@@ -1968,8 +2559,8 @@
       <c r="X28" s="23"/>
       <c r="Y28" s="31"/>
       <c r="Z28" s="31"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="8"/>
@@ -1998,8 +2589,8 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="31"/>
       <c r="Z29" s="31"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="8"/>
@@ -2028,8 +2619,8 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="31"/>
       <c r="Z30" s="31"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="8"/>
@@ -2058,8 +2649,8 @@
       <c r="X31" s="19"/>
       <c r="Y31" s="31"/>
       <c r="Z31" s="31"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="8"/>
@@ -2088,8 +2679,8 @@
       <c r="X32" s="21"/>
       <c r="Y32" s="31"/>
       <c r="Z32" s="31"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="8"/>
@@ -2118,10 +2709,10 @@
       <c r="X33" s="21"/>
       <c r="Y33" s="31"/>
       <c r="Z33" s="31"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-    </row>
-    <row r="34" spans="1:28" ht="15.6">
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:28">
       <c r="A34" s="8"/>
       <c r="B34" s="19"/>
       <c r="C34" s="17"/>
@@ -2148,10 +2739,10 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="31"/>
       <c r="Z34" s="31"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-    </row>
-    <row r="35" spans="1:28" ht="15.6">
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:28">
       <c r="A35" s="8"/>
       <c r="B35" s="19"/>
       <c r="C35" s="17"/>
@@ -2178,10 +2769,10 @@
       <c r="X35" s="21"/>
       <c r="Y35" s="31"/>
       <c r="Z35" s="31"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.6">
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:28">
       <c r="A36" s="8"/>
       <c r="B36" s="23"/>
       <c r="C36" s="17"/>
@@ -2208,8 +2799,8 @@
       <c r="X36" s="23"/>
       <c r="Y36" s="31"/>
       <c r="Z36" s="31"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="8"/>
@@ -2238,8 +2829,8 @@
       <c r="X37" s="21"/>
       <c r="Y37" s="31"/>
       <c r="Z37" s="31"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="8"/>
@@ -2268,8 +2859,8 @@
       <c r="X38" s="19"/>
       <c r="Y38" s="31"/>
       <c r="Z38" s="31"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="8"/>
@@ -2298,10 +2889,10 @@
       <c r="X39" s="19"/>
       <c r="Y39" s="31"/>
       <c r="Z39" s="31"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.6">
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:28">
       <c r="A40" s="8"/>
       <c r="B40" s="23"/>
       <c r="C40" s="17"/>
@@ -2328,10 +2919,10 @@
       <c r="X40" s="23"/>
       <c r="Y40" s="31"/>
       <c r="Z40" s="31"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-    </row>
-    <row r="41" spans="1:28" ht="15.6">
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:28">
       <c r="A41" s="8"/>
       <c r="B41" s="23"/>
       <c r="C41" s="17"/>
@@ -2358,8 +2949,8 @@
       <c r="X41" s="23"/>
       <c r="Y41" s="31"/>
       <c r="Z41" s="31"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="8"/>
@@ -2388,8 +2979,8 @@
       <c r="X42" s="19"/>
       <c r="Y42" s="31"/>
       <c r="Z42" s="31"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="8"/>
@@ -2418,8 +3009,8 @@
       <c r="X43" s="19"/>
       <c r="Y43" s="31"/>
       <c r="Z43" s="31"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="36"/>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="8"/>
@@ -2448,8 +3039,8 @@
       <c r="X44" s="19"/>
       <c r="Y44" s="31"/>
       <c r="Z44" s="31"/>
-      <c r="AA44" s="35"/>
-      <c r="AB44" s="35"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="8"/>
@@ -2478,8 +3069,8 @@
       <c r="X45" s="19"/>
       <c r="Y45" s="31"/>
       <c r="Z45" s="31"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="36"/>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="8"/>
@@ -2508,10 +3099,10 @@
       <c r="X46" s="19"/>
       <c r="Y46" s="31"/>
       <c r="Z46" s="31"/>
-      <c r="AA46" s="35"/>
-      <c r="AB46" s="35"/>
-    </row>
-    <row r="47" spans="1:28" ht="15.6">
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="36"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:28">
       <c r="A47" s="8"/>
       <c r="B47" s="23"/>
       <c r="C47" s="17"/>
@@ -2538,10 +3129,10 @@
       <c r="X47" s="23"/>
       <c r="Y47" s="31"/>
       <c r="Z47" s="31"/>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
-    </row>
-    <row r="48" spans="1:28" ht="15.6">
+      <c r="AA47" s="36"/>
+      <c r="AB47" s="36"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:28">
       <c r="A48" s="8"/>
       <c r="B48" s="23"/>
       <c r="C48" s="17"/>
@@ -2568,10 +3159,10 @@
       <c r="X48" s="23"/>
       <c r="Y48" s="31"/>
       <c r="Z48" s="31"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-    </row>
-    <row r="49" spans="1:28" ht="15.6">
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:28">
       <c r="A49" s="8"/>
       <c r="B49" s="23"/>
       <c r="C49" s="17"/>
@@ -2598,10 +3189,10 @@
       <c r="X49" s="23"/>
       <c r="Y49" s="31"/>
       <c r="Z49" s="31"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-    </row>
-    <row r="50" spans="1:28" ht="15.6">
+      <c r="AA49" s="36"/>
+      <c r="AB49" s="36"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:28">
       <c r="A50" s="8"/>
       <c r="B50" s="23"/>
       <c r="C50" s="17"/>
@@ -2628,10 +3219,10 @@
       <c r="X50" s="23"/>
       <c r="Y50" s="31"/>
       <c r="Z50" s="31"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-    </row>
-    <row r="51" spans="1:28" ht="15.6">
+      <c r="AA50" s="36"/>
+      <c r="AB50" s="36"/>
+    </row>
+    <row r="51" ht="14.25" spans="1:28">
       <c r="A51" s="8"/>
       <c r="B51" s="23"/>
       <c r="C51" s="17"/>
@@ -2658,10 +3249,10 @@
       <c r="X51" s="23"/>
       <c r="Y51" s="31"/>
       <c r="Z51" s="31"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-    </row>
-    <row r="52" spans="1:28" ht="15.6">
+      <c r="AA51" s="36"/>
+      <c r="AB51" s="36"/>
+    </row>
+    <row r="52" ht="14.25" spans="1:28">
       <c r="A52" s="8"/>
       <c r="B52" s="23"/>
       <c r="C52" s="17"/>
@@ -2688,8 +3279,8 @@
       <c r="X52" s="23"/>
       <c r="Y52" s="31"/>
       <c r="Z52" s="31"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
+      <c r="AA52" s="36"/>
+      <c r="AB52" s="36"/>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="8"/>
@@ -2718,8 +3309,8 @@
       <c r="X53" s="19"/>
       <c r="Y53" s="31"/>
       <c r="Z53" s="31"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
+      <c r="AA53" s="36"/>
+      <c r="AB53" s="36"/>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="8"/>
@@ -2748,8 +3339,8 @@
       <c r="X54" s="19"/>
       <c r="Y54" s="31"/>
       <c r="Z54" s="31"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
+      <c r="AA54" s="36"/>
+      <c r="AB54" s="36"/>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="8"/>
@@ -2778,10 +3369,10 @@
       <c r="X55" s="19"/>
       <c r="Y55" s="31"/>
       <c r="Z55" s="31"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-    </row>
-    <row r="56" spans="1:28" ht="15.6">
+      <c r="AA55" s="36"/>
+      <c r="AB55" s="36"/>
+    </row>
+    <row r="56" ht="14.25" spans="1:28">
       <c r="A56" s="8"/>
       <c r="B56" s="23"/>
       <c r="C56" s="17"/>
@@ -2808,10 +3399,10 @@
       <c r="X56" s="23"/>
       <c r="Y56" s="31"/>
       <c r="Z56" s="31"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-    </row>
-    <row r="57" spans="1:28" ht="15.6">
+      <c r="AA56" s="36"/>
+      <c r="AB56" s="36"/>
+    </row>
+    <row r="57" ht="14.25" spans="1:28">
       <c r="A57" s="8"/>
       <c r="B57" s="23"/>
       <c r="C57" s="17"/>
@@ -2838,8 +3429,8 @@
       <c r="X57" s="23"/>
       <c r="Y57" s="31"/>
       <c r="Z57" s="31"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
+      <c r="AA57" s="36"/>
+      <c r="AB57" s="36"/>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="8"/>
@@ -2868,8 +3459,8 @@
       <c r="X58" s="19"/>
       <c r="Y58" s="31"/>
       <c r="Z58" s="31"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
+      <c r="AA58" s="36"/>
+      <c r="AB58" s="36"/>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="8"/>
@@ -2898,8 +3489,8 @@
       <c r="X59" s="19"/>
       <c r="Y59" s="31"/>
       <c r="Z59" s="31"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
+      <c r="AA59" s="36"/>
+      <c r="AB59" s="36"/>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="8"/>
@@ -2928,8 +3519,8 @@
       <c r="X60" s="19"/>
       <c r="Y60" s="31"/>
       <c r="Z60" s="31"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
+      <c r="AA60" s="36"/>
+      <c r="AB60" s="36"/>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="8"/>
@@ -2958,8 +3549,8 @@
       <c r="X61" s="19"/>
       <c r="Y61" s="31"/>
       <c r="Z61" s="31"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
+      <c r="AA61" s="36"/>
+      <c r="AB61" s="36"/>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="8"/>
@@ -2988,8 +3579,8 @@
       <c r="X62" s="19"/>
       <c r="Y62" s="31"/>
       <c r="Z62" s="31"/>
-      <c r="AA62" s="35"/>
-      <c r="AB62" s="35"/>
+      <c r="AA62" s="36"/>
+      <c r="AB62" s="36"/>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="8"/>
@@ -3018,10 +3609,10 @@
       <c r="X63" s="21"/>
       <c r="Y63" s="31"/>
       <c r="Z63" s="31"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
-    </row>
-    <row r="64" spans="1:28" ht="15.6">
+      <c r="AA63" s="36"/>
+      <c r="AB63" s="36"/>
+    </row>
+    <row r="64" ht="14.25" spans="1:28">
       <c r="A64" s="8"/>
       <c r="B64" s="23"/>
       <c r="C64" s="17"/>
@@ -3048,10 +3639,10 @@
       <c r="X64" s="23"/>
       <c r="Y64" s="31"/>
       <c r="Z64" s="31"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-    </row>
-    <row r="65" spans="1:28" ht="15.6">
+      <c r="AA64" s="36"/>
+      <c r="AB64" s="36"/>
+    </row>
+    <row r="65" ht="14.25" spans="1:28">
       <c r="A65" s="8"/>
       <c r="B65" s="23"/>
       <c r="C65" s="17"/>
@@ -3078,8 +3669,8 @@
       <c r="X65" s="23"/>
       <c r="Y65" s="31"/>
       <c r="Z65" s="31"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
+      <c r="AA65" s="36"/>
+      <c r="AB65" s="36"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="8"/>
@@ -3108,8 +3699,8 @@
       <c r="X66" s="21"/>
       <c r="Y66" s="31"/>
       <c r="Z66" s="31"/>
-      <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
+      <c r="AA66" s="36"/>
+      <c r="AB66" s="36"/>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="8"/>
@@ -3138,8 +3729,8 @@
       <c r="X67" s="19"/>
       <c r="Y67" s="31"/>
       <c r="Z67" s="31"/>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
+      <c r="AA67" s="36"/>
+      <c r="AB67" s="36"/>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="8"/>
@@ -3168,10 +3759,10 @@
       <c r="X68" s="19"/>
       <c r="Y68" s="31"/>
       <c r="Z68" s="31"/>
-      <c r="AA68" s="35"/>
-      <c r="AB68" s="35"/>
-    </row>
-    <row r="69" spans="1:28" ht="15.6">
+      <c r="AA68" s="36"/>
+      <c r="AB68" s="36"/>
+    </row>
+    <row r="69" ht="14.25" spans="1:28">
       <c r="A69" s="8"/>
       <c r="B69" s="23"/>
       <c r="C69" s="17"/>
@@ -3198,8 +3789,8 @@
       <c r="X69" s="23"/>
       <c r="Y69" s="31"/>
       <c r="Z69" s="31"/>
-      <c r="AA69" s="35"/>
-      <c r="AB69" s="35"/>
+      <c r="AA69" s="36"/>
+      <c r="AB69" s="36"/>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="8"/>
@@ -3228,10 +3819,10 @@
       <c r="X70" s="19"/>
       <c r="Y70" s="31"/>
       <c r="Z70" s="31"/>
-      <c r="AA70" s="35"/>
-      <c r="AB70" s="35"/>
-    </row>
-    <row r="71" spans="1:28" ht="15.6">
+      <c r="AA70" s="36"/>
+      <c r="AB70" s="36"/>
+    </row>
+    <row r="71" ht="14.25" spans="1:28">
       <c r="A71" s="8"/>
       <c r="B71" s="23"/>
       <c r="C71" s="17"/>
@@ -3258,10 +3849,10 @@
       <c r="X71" s="23"/>
       <c r="Y71" s="31"/>
       <c r="Z71" s="31"/>
-      <c r="AA71" s="35"/>
-      <c r="AB71" s="35"/>
-    </row>
-    <row r="72" spans="1:28" ht="15.6">
+      <c r="AA71" s="36"/>
+      <c r="AB71" s="36"/>
+    </row>
+    <row r="72" ht="14.25" spans="1:28">
       <c r="A72" s="8"/>
       <c r="B72" s="23"/>
       <c r="C72" s="17"/>
@@ -3288,10 +3879,10 @@
       <c r="X72" s="23"/>
       <c r="Y72" s="31"/>
       <c r="Z72" s="31"/>
-      <c r="AA72" s="35"/>
-      <c r="AB72" s="35"/>
-    </row>
-    <row r="73" spans="1:28" ht="15.6">
+      <c r="AA72" s="36"/>
+      <c r="AB72" s="36"/>
+    </row>
+    <row r="73" ht="14.25" spans="1:28">
       <c r="A73" s="8"/>
       <c r="B73" s="23"/>
       <c r="C73" s="17"/>
@@ -3318,10 +3909,10 @@
       <c r="X73" s="23"/>
       <c r="Y73" s="31"/>
       <c r="Z73" s="31"/>
-      <c r="AA73" s="35"/>
-      <c r="AB73" s="35"/>
-    </row>
-    <row r="74" spans="1:28" ht="15.6">
+      <c r="AA73" s="36"/>
+      <c r="AB73" s="36"/>
+    </row>
+    <row r="74" ht="14.25" spans="1:28">
       <c r="A74" s="8"/>
       <c r="B74" s="23"/>
       <c r="C74" s="17"/>
@@ -3348,8 +3939,8 @@
       <c r="X74" s="23"/>
       <c r="Y74" s="31"/>
       <c r="Z74" s="31"/>
-      <c r="AA74" s="35"/>
-      <c r="AB74" s="35"/>
+      <c r="AA74" s="36"/>
+      <c r="AB74" s="36"/>
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="8"/>
@@ -3378,8 +3969,8 @@
       <c r="X75" s="19"/>
       <c r="Y75" s="31"/>
       <c r="Z75" s="31"/>
-      <c r="AA75" s="35"/>
-      <c r="AB75" s="35"/>
+      <c r="AA75" s="36"/>
+      <c r="AB75" s="36"/>
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="8"/>
@@ -3408,8 +3999,8 @@
       <c r="X76" s="21"/>
       <c r="Y76" s="31"/>
       <c r="Z76" s="31"/>
-      <c r="AA76" s="35"/>
-      <c r="AB76" s="35"/>
+      <c r="AA76" s="36"/>
+      <c r="AB76" s="36"/>
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="8"/>
@@ -3438,8 +4029,8 @@
       <c r="X77" s="19"/>
       <c r="Y77" s="31"/>
       <c r="Z77" s="31"/>
-      <c r="AA77" s="35"/>
-      <c r="AB77" s="35"/>
+      <c r="AA77" s="36"/>
+      <c r="AB77" s="36"/>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="8"/>
@@ -3468,8 +4059,8 @@
       <c r="X78" s="19"/>
       <c r="Y78" s="31"/>
       <c r="Z78" s="31"/>
-      <c r="AA78" s="35"/>
-      <c r="AB78" s="35"/>
+      <c r="AA78" s="36"/>
+      <c r="AB78" s="36"/>
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="8"/>
@@ -3498,8 +4089,8 @@
       <c r="X79" s="19"/>
       <c r="Y79" s="31"/>
       <c r="Z79" s="31"/>
-      <c r="AA79" s="35"/>
-      <c r="AB79" s="35"/>
+      <c r="AA79" s="36"/>
+      <c r="AB79" s="36"/>
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="8"/>
@@ -3528,8 +4119,8 @@
       <c r="X80" s="19"/>
       <c r="Y80" s="31"/>
       <c r="Z80" s="31"/>
-      <c r="AA80" s="35"/>
-      <c r="AB80" s="35"/>
+      <c r="AA80" s="36"/>
+      <c r="AB80" s="36"/>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="8"/>
@@ -3558,8 +4149,8 @@
       <c r="X81" s="19"/>
       <c r="Y81" s="31"/>
       <c r="Z81" s="31"/>
-      <c r="AA81" s="35"/>
-      <c r="AB81" s="35"/>
+      <c r="AA81" s="36"/>
+      <c r="AB81" s="36"/>
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="8"/>
@@ -3588,8 +4179,8 @@
       <c r="X82" s="19"/>
       <c r="Y82" s="31"/>
       <c r="Z82" s="31"/>
-      <c r="AA82" s="35"/>
-      <c r="AB82" s="35"/>
+      <c r="AA82" s="36"/>
+      <c r="AB82" s="36"/>
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="8"/>
@@ -3618,8 +4209,8 @@
       <c r="X83" s="19"/>
       <c r="Y83" s="31"/>
       <c r="Z83" s="31"/>
-      <c r="AA83" s="35"/>
-      <c r="AB83" s="35"/>
+      <c r="AA83" s="36"/>
+      <c r="AB83" s="36"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="8"/>
@@ -3648,8 +4239,8 @@
       <c r="X84" s="19"/>
       <c r="Y84" s="31"/>
       <c r="Z84" s="31"/>
-      <c r="AA84" s="35"/>
-      <c r="AB84" s="35"/>
+      <c r="AA84" s="36"/>
+      <c r="AB84" s="36"/>
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="8"/>
@@ -3678,17 +4269,17 @@
       <c r="X85" s="19"/>
       <c r="Y85" s="31"/>
       <c r="Z85" s="31"/>
-      <c r="AA85" s="35"/>
-      <c r="AB85" s="35"/>
+      <c r="AA85" s="36"/>
+      <c r="AB85" s="36"/>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="8"/>
-      <c r="B86" s="35"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="35"/>
+      <c r="G86" s="36"/>
       <c r="H86" s="22"/>
       <c r="I86" s="8"/>
       <c r="J86" s="17"/>
@@ -3704,21 +4295,21 @@
       <c r="T86" s="31"/>
       <c r="U86" s="31"/>
       <c r="V86" s="31"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="36"/>
       <c r="Y86" s="31"/>
       <c r="Z86" s="31"/>
-      <c r="AA86" s="35"/>
-      <c r="AB86" s="35"/>
+      <c r="AA86" s="36"/>
+      <c r="AB86" s="36"/>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="8"/>
-      <c r="B87" s="35"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="35"/>
+      <c r="G87" s="36"/>
       <c r="H87" s="22"/>
       <c r="I87" s="8"/>
       <c r="J87" s="17"/>
@@ -3734,84 +4325,67 @@
       <c r="T87" s="31"/>
       <c r="U87" s="31"/>
       <c r="V87" s="31"/>
-      <c r="W87" s="35"/>
-      <c r="X87" s="35"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="36"/>
       <c r="Y87" s="31"/>
       <c r="Z87" s="31"/>
-      <c r="AA87" s="35"/>
-      <c r="AB87" s="35"/>
+      <c r="AA87" s="36"/>
+      <c r="AB87" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【门牌号】栏" sqref="D1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="10">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【门牌号】栏" sqref="D1">
       <formula1>OR(D1&lt;&gt;"")</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【注册资本（万）】栏" sqref="I2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M4 M1:M2 M5:M1048576">
+      <formula1>字典项!$C$2:$C$19</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【注册资本（万）】栏" sqref="I2">
       <formula1>OR(I2&lt;&gt;"")</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【厂房名称】栏" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【厂房名称】栏" sqref="B2">
       <formula1>OR(B2&lt;&gt;"")</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【成立日期】栏" sqref="H2 K2" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E1:E2 E5:E1048576">
+      <formula1>字典项!$A$2:$A$9</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【成立日期】栏" sqref="H2 K2">
       <formula1>OR(H2&lt;&gt;"")</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【注册地址】栏" sqref="J2" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【注册地址】栏" sqref="J2">
       <formula1>OR(J2&lt;&gt;"")</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【法人代表】栏" sqref="G4" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F1:F2 F5:F1048576">
+      <formula1>字典项!$B$2:$B$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3 U4 U1:U2 U5:U1048576">
+      <formula1>字典项!$D$2:$D$3</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【法人代表】栏" sqref="G4">
       <formula1>OR(G4&lt;&gt;"")</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>字典项!$C$2:$C$19</xm:f>
-          </x14:formula1>
-          <xm:sqref>M3 M4 M1:M2 M5:M1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>字典项!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3 E4 E1:E2 E5:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
-          <x14:formula1>
-            <xm:f>字典项!$B$2:$B$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3 F4 F1:F2 F5:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
-          <x14:formula1>
-            <xm:f>字典项!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>U3 U4 U1:U2 U5:U1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3830,151 +4404,151 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>